--- a/results/initial_analysis_report.xlsx
+++ b/results/initial_analysis_report.xlsx
@@ -10,13 +10,15 @@
     <sheet name="data_types" sheetId="1" r:id="rId1"/>
     <sheet name="first_5_rows" sheetId="2" r:id="rId2"/>
     <sheet name="numerical_summary" sheetId="3" r:id="rId3"/>
+    <sheet name="dropped_columns" sheetId="4" r:id="rId4"/>
+    <sheet name="missing_data_barplot" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="155">
   <si>
     <t>dtypes</t>
   </si>
@@ -478,6 +480,9 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>Dropped Columns</t>
   </si>
 </sst>
 </file>
@@ -548,6 +553,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>26</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="missing_data_barplot.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12801626" cy="5486411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3252,4 +3300,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>